--- a/masters_stats_2010_to_2019.xlsx
+++ b/masters_stats_2010_to_2019.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannymorgan/Desktop/Masters_stats/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7ACFC7-509D-CF44-A5D8-EB67056785B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -613,8 +619,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +657,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -697,7 +711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,9 +743,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,6 +795,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -938,14 +988,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1090,7 +1142,7 @@
         <v>47</v>
       </c>
       <c r="Q2">
-        <v>294.6</v>
+        <v>294.60000000000002</v>
       </c>
       <c r="R2">
         <v>44</v>
@@ -1135,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1230,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1280,7 +1332,7 @@
         <v>29</v>
       </c>
       <c r="Q4">
-        <v>313.6</v>
+        <v>313.60000000000002</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -1325,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -1420,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1515,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -1610,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1660,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>283.1</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="R8">
         <v>64</v>
@@ -1705,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -1800,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -1895,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -1945,7 +1997,7 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>299.9</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="R11">
         <v>24</v>
@@ -1990,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -2040,7 +2092,7 @@
         <v>6</v>
       </c>
       <c r="Q12">
-        <v>308.4</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="R12">
         <v>10</v>
@@ -2085,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -2135,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="Q13">
-        <v>294.1</v>
+        <v>294.10000000000002</v>
       </c>
       <c r="R13">
         <v>45</v>
@@ -2180,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -2275,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -2325,7 +2377,7 @@
         <v>60</v>
       </c>
       <c r="Q15">
-        <v>292.9</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="R15">
         <v>48</v>
@@ -2370,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -2420,7 +2472,7 @@
         <v>13</v>
       </c>
       <c r="Q16">
-        <v>298.4</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="R16">
         <v>31</v>
@@ -2465,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -2560,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -2655,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -2705,7 +2757,7 @@
         <v>64</v>
       </c>
       <c r="Q19">
-        <v>299.4</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="R19">
         <v>27</v>
@@ -2750,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -2845,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -2895,7 +2947,7 @@
         <v>21</v>
       </c>
       <c r="Q21">
-        <v>299.9</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="R21">
         <v>24</v>
@@ -2940,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -2990,7 +3042,7 @@
         <v>58</v>
       </c>
       <c r="Q22">
-        <v>314.4</v>
+        <v>314.39999999999998</v>
       </c>
       <c r="R22">
         <v>2</v>
@@ -3035,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -3130,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -3180,7 +3232,7 @@
         <v>29</v>
       </c>
       <c r="Q24">
-        <v>286.6</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="R24">
         <v>63</v>
@@ -3225,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -3275,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="Q25">
-        <v>310.6</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="R25">
         <v>8</v>
@@ -3320,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -3370,7 +3422,7 @@
         <v>21</v>
       </c>
       <c r="Q26">
-        <v>300.4</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="R26">
         <v>22</v>
@@ -3415,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -3465,7 +3517,7 @@
         <v>37</v>
       </c>
       <c r="Q27">
-        <v>292.6</v>
+        <v>292.60000000000002</v>
       </c>
       <c r="R27">
         <v>49</v>
@@ -3510,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -3560,7 +3612,7 @@
         <v>21</v>
       </c>
       <c r="Q28">
-        <v>297.6</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="R28">
         <v>33</v>
@@ -3605,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -3700,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -3795,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -3845,7 +3897,7 @@
         <v>21</v>
       </c>
       <c r="Q31">
-        <v>293.4</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="R31">
         <v>47</v>
@@ -3890,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -3940,7 +3992,7 @@
         <v>37</v>
       </c>
       <c r="Q32">
-        <v>299.6</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="R32">
         <v>26</v>
@@ -3985,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -4035,7 +4087,7 @@
         <v>29</v>
       </c>
       <c r="Q33">
-        <v>294.9</v>
+        <v>294.89999999999998</v>
       </c>
       <c r="R33">
         <v>42</v>
@@ -4080,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -4130,7 +4182,7 @@
         <v>62</v>
       </c>
       <c r="Q34">
-        <v>313.6</v>
+        <v>313.60000000000002</v>
       </c>
       <c r="R34">
         <v>3</v>
@@ -4175,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -4225,7 +4277,7 @@
         <v>54</v>
       </c>
       <c r="Q35">
-        <v>303.1</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="R35">
         <v>16</v>
@@ -4270,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -4365,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -4415,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="Q37">
-        <v>289.9</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="R37">
         <v>54</v>
@@ -4460,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -4555,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2019</v>
       </c>
@@ -4605,7 +4657,7 @@
         <v>58</v>
       </c>
       <c r="Q39">
-        <v>296.6</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="R39">
         <v>37</v>
@@ -4650,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2019</v>
       </c>
@@ -4745,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2019</v>
       </c>
@@ -4840,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -4890,7 +4942,7 @@
         <v>6</v>
       </c>
       <c r="Q42">
-        <v>296.1</v>
+        <v>296.10000000000002</v>
       </c>
       <c r="R42">
         <v>39</v>
@@ -4935,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -4985,7 +5037,7 @@
         <v>37</v>
       </c>
       <c r="Q43">
-        <v>297.6</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="R43">
         <v>33</v>
@@ -5030,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -5125,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2019</v>
       </c>
@@ -5175,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="Q45">
-        <v>298.6</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="R45">
         <v>29</v>
@@ -5220,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2019</v>
       </c>
@@ -5315,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -5410,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -5460,7 +5512,7 @@
         <v>16</v>
       </c>
       <c r="Q48">
-        <v>290.6</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="R48">
         <v>25</v>
@@ -5505,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -5555,7 +5607,7 @@
         <v>26</v>
       </c>
       <c r="Q49">
-        <v>287.1</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="R49">
         <v>35</v>
@@ -5600,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -5650,7 +5702,7 @@
         <v>13</v>
       </c>
       <c r="Q50">
-        <v>295.4</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="R50">
         <v>8</v>
@@ -5695,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -5745,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="Q51">
-        <v>284.9</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="R51">
         <v>38</v>
@@ -5790,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -5885,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -5935,7 +5987,7 @@
         <v>37</v>
       </c>
       <c r="Q53">
-        <v>302.6</v>
+        <v>302.60000000000002</v>
       </c>
       <c r="R53">
         <v>4</v>
@@ -5980,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -6075,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -6170,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -6265,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -6315,7 +6367,7 @@
         <v>29</v>
       </c>
       <c r="Q57">
-        <v>304.9</v>
+        <v>304.89999999999998</v>
       </c>
       <c r="R57">
         <v>2</v>
@@ -6360,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -6455,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -6505,7 +6557,7 @@
         <v>13</v>
       </c>
       <c r="Q59">
-        <v>294.4</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -6550,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -6645,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -6740,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -6835,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -6885,7 +6937,7 @@
         <v>26</v>
       </c>
       <c r="Q63">
-        <v>310.6</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -6930,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -7025,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -7120,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -7170,7 +7222,7 @@
         <v>5</v>
       </c>
       <c r="Q66">
-        <v>289.1</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="R66">
         <v>30</v>
@@ -7215,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -7310,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -7360,7 +7412,7 @@
         <v>36</v>
       </c>
       <c r="Q68">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="R68">
         <v>17</v>
@@ -7405,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -7500,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -7595,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -7645,7 +7697,7 @@
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="R71">
         <v>17</v>
@@ -7690,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -7740,7 +7792,7 @@
         <v>21</v>
       </c>
       <c r="Q72">
-        <v>291.9</v>
+        <v>291.89999999999998</v>
       </c>
       <c r="R72">
         <v>20</v>
@@ -7785,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -7880,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -7975,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -8070,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2018</v>
       </c>
@@ -8120,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="Q76">
-        <v>283.6</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="R76">
         <v>40</v>
@@ -8165,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -8215,7 +8267,7 @@
         <v>16</v>
       </c>
       <c r="Q77">
-        <v>290.9</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="R77">
         <v>24</v>
@@ -8260,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -8355,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -8450,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2018</v>
       </c>
@@ -8500,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="Q80">
-        <v>292.1</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="R80">
         <v>17</v>
@@ -8545,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -8595,7 +8647,7 @@
         <v>5</v>
       </c>
       <c r="Q81">
-        <v>288.1</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="R81">
         <v>33</v>
@@ -8640,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -8735,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2018</v>
       </c>
@@ -8830,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -8880,7 +8932,7 @@
         <v>16</v>
       </c>
       <c r="Q84">
-        <v>273.9</v>
+        <v>273.89999999999998</v>
       </c>
       <c r="R84">
         <v>52</v>
@@ -8925,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2018</v>
       </c>
@@ -8975,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>270.1</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="R85">
         <v>53</v>
@@ -9020,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2018</v>
       </c>
@@ -9115,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2018</v>
       </c>
@@ -9165,7 +9217,7 @@
         <v>29</v>
       </c>
       <c r="Q87">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="R87">
         <v>29</v>
@@ -9210,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2018</v>
       </c>
@@ -9305,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2018</v>
       </c>
@@ -9400,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2018</v>
       </c>
@@ -9495,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2018</v>
       </c>
@@ -9590,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2017</v>
       </c>
@@ -9685,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2017</v>
       </c>
@@ -9780,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2017</v>
       </c>
@@ -9875,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2017</v>
       </c>
@@ -9970,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2017</v>
       </c>
@@ -10065,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2017</v>
       </c>
@@ -10160,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2017</v>
       </c>
@@ -10255,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2017</v>
       </c>
@@ -10350,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2017</v>
       </c>
@@ -10445,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2017</v>
       </c>
@@ -10540,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2017</v>
       </c>
@@ -10635,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2017</v>
       </c>
@@ -10730,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2017</v>
       </c>
@@ -10825,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2017</v>
       </c>
@@ -10920,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2017</v>
       </c>
@@ -11015,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2017</v>
       </c>
@@ -11110,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2017</v>
       </c>
@@ -11205,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2017</v>
       </c>
@@ -11300,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2017</v>
       </c>
@@ -11395,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2017</v>
       </c>
@@ -11490,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2017</v>
       </c>
@@ -11585,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2017</v>
       </c>
@@ -11680,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2017</v>
       </c>
@@ -11775,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2017</v>
       </c>
@@ -11870,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2017</v>
       </c>
@@ -11965,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2017</v>
       </c>
@@ -12060,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2017</v>
       </c>
@@ -12155,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2017</v>
       </c>
@@ -12250,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2017</v>
       </c>
@@ -12345,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2017</v>
       </c>
@@ -12440,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2017</v>
       </c>
@@ -12535,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2017</v>
       </c>
@@ -12630,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2017</v>
       </c>
@@ -12725,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2017</v>
       </c>
@@ -12820,7 +12872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2017</v>
       </c>
@@ -12915,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2017</v>
       </c>
@@ -13010,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2017</v>
       </c>
@@ -13105,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2017</v>
       </c>
@@ -13200,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2017</v>
       </c>
@@ -13295,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2017</v>
       </c>
@@ -13390,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2017</v>
       </c>
@@ -13485,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2017</v>
       </c>
@@ -13580,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2017</v>
       </c>
@@ -13675,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2017</v>
       </c>
@@ -13770,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2017</v>
       </c>
@@ -13865,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2016</v>
       </c>
@@ -13960,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2016</v>
       </c>
@@ -14055,7 +14107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2016</v>
       </c>
@@ -14150,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2016</v>
       </c>
@@ -14200,7 +14252,7 @@
         <v>34</v>
       </c>
       <c r="Q140">
-        <v>283.1</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="R140">
         <v>21</v>
@@ -14245,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2016</v>
       </c>
@@ -14340,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2016</v>
       </c>
@@ -14435,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2016</v>
       </c>
@@ -14485,7 +14537,7 @@
         <v>3</v>
       </c>
       <c r="Q143">
-        <v>264.1</v>
+        <v>264.10000000000002</v>
       </c>
       <c r="R143">
         <v>54</v>
@@ -14530,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2016</v>
       </c>
@@ -14580,7 +14632,7 @@
         <v>15</v>
       </c>
       <c r="Q144">
-        <v>285.9</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="R144">
         <v>15</v>
@@ -14625,7 +14677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:31">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2016</v>
       </c>
@@ -14675,7 +14727,7 @@
         <v>10</v>
       </c>
       <c r="Q145">
-        <v>270.6</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="R145">
         <v>51</v>
@@ -14720,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:31">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2016</v>
       </c>
@@ -14815,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:31">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2016</v>
       </c>
@@ -14865,7 +14917,7 @@
         <v>26</v>
       </c>
       <c r="Q147">
-        <v>275.1</v>
+        <v>275.10000000000002</v>
       </c>
       <c r="R147">
         <v>41</v>
@@ -14910,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:31">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2016</v>
       </c>
@@ -15005,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:31">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2016</v>
       </c>
@@ -15100,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:31">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2016</v>
       </c>
@@ -15195,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:31">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2016</v>
       </c>
@@ -15290,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:31">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2016</v>
       </c>
@@ -15385,7 +15437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:31">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2016</v>
       </c>
@@ -15435,7 +15487,7 @@
         <v>24</v>
       </c>
       <c r="Q153">
-        <v>282.1</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="R153">
         <v>25</v>
@@ -15480,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:31">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2016</v>
       </c>
@@ -15530,7 +15582,7 @@
         <v>43</v>
       </c>
       <c r="Q154">
-        <v>272.6</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="R154">
         <v>48</v>
@@ -15575,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:31">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2016</v>
       </c>
@@ -15670,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:31">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2016</v>
       </c>
@@ -15765,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:31">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2016</v>
       </c>
@@ -15860,7 +15912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:31">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2016</v>
       </c>
@@ -15955,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:31">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2016</v>
       </c>
@@ -16050,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:31">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2016</v>
       </c>
@@ -16145,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2016</v>
       </c>
@@ -16240,7 +16292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2016</v>
       </c>
@@ -16290,7 +16342,7 @@
         <v>5</v>
       </c>
       <c r="Q162">
-        <v>283.6</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="R162">
         <v>18</v>
@@ -16335,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2016</v>
       </c>
@@ -16385,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>270.1</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="R163">
         <v>52</v>
@@ -16430,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2016</v>
       </c>
@@ -16480,7 +16532,7 @@
         <v>10</v>
       </c>
       <c r="Q164">
-        <v>273.1</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="R164">
         <v>46</v>
@@ -16525,7 +16577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2016</v>
       </c>
@@ -16620,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2016</v>
       </c>
@@ -16670,7 +16722,7 @@
         <v>43</v>
       </c>
       <c r="Q166">
-        <v>289.9</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="R166">
         <v>7</v>
@@ -16715,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2016</v>
       </c>
@@ -16810,7 +16862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2016</v>
       </c>
@@ -16860,7 +16912,7 @@
         <v>15</v>
       </c>
       <c r="Q168">
-        <v>278.9</v>
+        <v>278.89999999999998</v>
       </c>
       <c r="R168">
         <v>31</v>
@@ -16905,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2016</v>
       </c>
@@ -17000,7 +17052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2016</v>
       </c>
@@ -17095,7 +17147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2016</v>
       </c>
@@ -17190,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2016</v>
       </c>
@@ -17285,7 +17337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2016</v>
       </c>
@@ -17380,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2016</v>
       </c>
@@ -17430,7 +17482,7 @@
         <v>5</v>
       </c>
       <c r="Q174">
-        <v>266.9</v>
+        <v>266.89999999999998</v>
       </c>
       <c r="R174">
         <v>53</v>
@@ -17475,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2016</v>
       </c>
@@ -17570,7 +17622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2016</v>
       </c>
@@ -17620,7 +17672,7 @@
         <v>45</v>
       </c>
       <c r="Q176">
-        <v>277.9</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="R176">
         <v>37</v>
@@ -17665,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:31">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2016</v>
       </c>
@@ -17760,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:31">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2016</v>
       </c>
@@ -17810,7 +17862,7 @@
         <v>10</v>
       </c>
       <c r="Q178">
-        <v>279.1</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="R178">
         <v>30</v>
@@ -17855,7 +17907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:31">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2016</v>
       </c>
@@ -17905,7 +17957,7 @@
         <v>49</v>
       </c>
       <c r="Q179">
-        <v>275.1</v>
+        <v>275.10000000000002</v>
       </c>
       <c r="R179">
         <v>41</v>
@@ -17950,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:31">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2016</v>
       </c>
@@ -18045,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:31">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2016</v>
       </c>
@@ -18095,7 +18147,7 @@
         <v>26</v>
       </c>
       <c r="Q181">
-        <v>281.1</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="R181">
         <v>26</v>
@@ -18140,7 +18192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:31">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2015</v>
       </c>
@@ -18235,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:31">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2015</v>
       </c>
@@ -18330,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:31">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2015</v>
       </c>
@@ -18425,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:31">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2015</v>
       </c>
@@ -18520,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:31">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2015</v>
       </c>
@@ -18615,7 +18667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:31">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2015</v>
       </c>
@@ -18710,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:31">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2015</v>
       </c>
@@ -18805,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:31">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2015</v>
       </c>
@@ -18900,7 +18952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:31">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2015</v>
       </c>
@@ -18995,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:31">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2015</v>
       </c>
@@ -19090,7 +19142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:31">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2015</v>
       </c>
@@ -19185,7 +19237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:31">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2015</v>
       </c>
@@ -19280,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:31">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2015</v>
       </c>
@@ -19375,7 +19427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:31">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2015</v>
       </c>
@@ -19470,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:31">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2015</v>
       </c>
@@ -19565,7 +19617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:31">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2015</v>
       </c>
@@ -19660,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:31">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2015</v>
       </c>
@@ -19755,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:31">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2015</v>
       </c>
@@ -19850,7 +19902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:31">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2015</v>
       </c>
@@ -19945,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:31">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2015</v>
       </c>
@@ -20040,7 +20092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:31">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2015</v>
       </c>
@@ -20135,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:31">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2015</v>
       </c>
@@ -20230,7 +20282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:31">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2015</v>
       </c>
@@ -20325,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:31">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2015</v>
       </c>
@@ -20420,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:31">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2015</v>
       </c>
@@ -20515,7 +20567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:31">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2015</v>
       </c>
@@ -20610,7 +20662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:31">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2015</v>
       </c>
@@ -20705,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:31">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2015</v>
       </c>
@@ -20800,7 +20852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:31">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2015</v>
       </c>
@@ -20895,7 +20947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:31">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2015</v>
       </c>
@@ -20990,7 +21042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:31">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2015</v>
       </c>
@@ -21085,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:31">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2015</v>
       </c>
@@ -21180,7 +21232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:31">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2015</v>
       </c>
@@ -21275,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:31">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2015</v>
       </c>
@@ -21370,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:31">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2015</v>
       </c>
@@ -21465,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:31">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2015</v>
       </c>
@@ -21560,7 +21612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:31">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2015</v>
       </c>
@@ -21655,7 +21707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:31">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2015</v>
       </c>
@@ -21750,7 +21802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:31">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2015</v>
       </c>
@@ -21845,7 +21897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:31">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2015</v>
       </c>
@@ -21940,7 +21992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:31">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2015</v>
       </c>
@@ -22035,7 +22087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:31">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2015</v>
       </c>
@@ -22130,7 +22182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:31">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2015</v>
       </c>
@@ -22225,7 +22277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:31">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2015</v>
       </c>
@@ -22320,7 +22372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:31">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2015</v>
       </c>
@@ -22415,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:31">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2014</v>
       </c>
@@ -22465,7 +22517,7 @@
         <v>13</v>
       </c>
       <c r="Q227">
-        <v>305.6</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="R227">
         <v>1</v>
@@ -22510,7 +22562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:31">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2014</v>
       </c>
@@ -22560,7 +22612,7 @@
         <v>51</v>
       </c>
       <c r="Q228">
-        <v>287.4</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="R228">
         <v>36</v>
@@ -22605,7 +22657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:31">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2014</v>
       </c>
@@ -22700,7 +22752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:31">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2014</v>
       </c>
@@ -22750,7 +22802,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>284.1</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="R230">
         <v>44</v>
@@ -22795,7 +22847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:31">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2014</v>
       </c>
@@ -22890,7 +22942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:31">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2014</v>
       </c>
@@ -22985,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:31">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2014</v>
       </c>
@@ -23080,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:31">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2014</v>
       </c>
@@ -23130,7 +23182,7 @@
         <v>3</v>
       </c>
       <c r="Q234">
-        <v>281.9</v>
+        <v>281.89999999999998</v>
       </c>
       <c r="R234">
         <v>47</v>
@@ -23175,7 +23227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:31">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2014</v>
       </c>
@@ -23225,7 +23277,7 @@
         <v>11</v>
       </c>
       <c r="Q235">
-        <v>278.4</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="R235">
         <v>49</v>
@@ -23270,7 +23322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:31">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2014</v>
       </c>
@@ -23365,7 +23417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:31">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2014</v>
       </c>
@@ -23460,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:31">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2014</v>
       </c>
@@ -23555,7 +23607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:31">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2014</v>
       </c>
@@ -23650,7 +23702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:31">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2014</v>
       </c>
@@ -23700,7 +23752,7 @@
         <v>2</v>
       </c>
       <c r="Q240">
-        <v>289.6</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="R240">
         <v>27</v>
@@ -23745,7 +23797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:31">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2014</v>
       </c>
@@ -23840,7 +23892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:31">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2014</v>
       </c>
@@ -23890,7 +23942,7 @@
         <v>19</v>
       </c>
       <c r="Q242">
-        <v>295.6</v>
+        <v>295.60000000000002</v>
       </c>
       <c r="R242">
         <v>11</v>
@@ -23935,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:31">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2014</v>
       </c>
@@ -23985,7 +24037,7 @@
         <v>29</v>
       </c>
       <c r="Q243">
-        <v>292.9</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="R243">
         <v>16</v>
@@ -24030,7 +24082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:31">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2014</v>
       </c>
@@ -24080,7 +24132,7 @@
         <v>42</v>
       </c>
       <c r="Q244">
-        <v>298.4</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="R244">
         <v>6</v>
@@ -24125,7 +24177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:31">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2014</v>
       </c>
@@ -24220,7 +24272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:31">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2014</v>
       </c>
@@ -24315,7 +24367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:31">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2014</v>
       </c>
@@ -24410,7 +24462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:31">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2014</v>
       </c>
@@ -24460,7 +24512,7 @@
         <v>23</v>
       </c>
       <c r="Q248">
-        <v>286.6</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="R248">
         <v>37</v>
@@ -24505,7 +24557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:31">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2014</v>
       </c>
@@ -24555,7 +24607,7 @@
         <v>47</v>
       </c>
       <c r="Q249">
-        <v>292.9</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="R249">
         <v>16</v>
@@ -24600,7 +24652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:31">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2014</v>
       </c>
@@ -24695,7 +24747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:31">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2014</v>
       </c>
@@ -24745,7 +24797,7 @@
         <v>23</v>
       </c>
       <c r="Q251">
-        <v>303.1</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="R251">
         <v>3</v>
@@ -24790,7 +24842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:31">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2014</v>
       </c>
@@ -24885,7 +24937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:31">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2014</v>
       </c>
@@ -24980,7 +25032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:31">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2014</v>
       </c>
@@ -25075,7 +25127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:31">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2014</v>
       </c>
@@ -25170,7 +25222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:31">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2014</v>
       </c>
@@ -25220,7 +25272,7 @@
         <v>29</v>
       </c>
       <c r="Q256">
-        <v>296.9</v>
+        <v>296.89999999999998</v>
       </c>
       <c r="R256">
         <v>9</v>
@@ -25265,7 +25317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:31">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2014</v>
       </c>
@@ -25360,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:31">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2014</v>
       </c>
@@ -25410,7 +25462,7 @@
         <v>13</v>
       </c>
       <c r="Q258">
-        <v>290.1</v>
+        <v>290.10000000000002</v>
       </c>
       <c r="R258">
         <v>24</v>
@@ -25455,7 +25507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:31">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2014</v>
       </c>
@@ -25550,7 +25602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:31">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2014</v>
       </c>
@@ -25600,7 +25652,7 @@
         <v>42</v>
       </c>
       <c r="Q260">
-        <v>281.1</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="R260">
         <v>48</v>
@@ -25645,7 +25697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:31">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2014</v>
       </c>
@@ -25695,7 +25747,7 @@
         <v>11</v>
       </c>
       <c r="Q261">
-        <v>298.1</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="R261">
         <v>7</v>
@@ -25740,7 +25792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:31">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2014</v>
       </c>
@@ -25835,7 +25887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:31">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2014</v>
       </c>
@@ -25930,7 +25982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:31">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2014</v>
       </c>
@@ -26025,7 +26077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:31">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2014</v>
       </c>
@@ -26075,7 +26127,7 @@
         <v>23</v>
       </c>
       <c r="Q265">
-        <v>293.4</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="R265">
         <v>14</v>
@@ -26120,7 +26172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:31">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2014</v>
       </c>
@@ -26215,7 +26267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:31">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2014</v>
       </c>
@@ -26265,7 +26317,7 @@
         <v>29</v>
       </c>
       <c r="Q267">
-        <v>290.1</v>
+        <v>290.10000000000002</v>
       </c>
       <c r="R267">
         <v>24</v>
@@ -26277,7 +26329,7 @@
         <v>2</v>
       </c>
       <c r="U267">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="V267">
         <v>131</v>
@@ -26310,7 +26362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:31">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2014</v>
       </c>
@@ -26360,7 +26412,7 @@
         <v>35</v>
       </c>
       <c r="Q268">
-        <v>292.4</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="R268">
         <v>18</v>
@@ -26405,7 +26457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:31">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2014</v>
       </c>
@@ -26500,7 +26552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:31">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2014</v>
       </c>
@@ -26595,7 +26647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:31">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2014</v>
       </c>
@@ -26690,7 +26742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:31">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2013</v>
       </c>
@@ -26785,7 +26837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:31">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2013</v>
       </c>
@@ -26835,7 +26887,7 @@
         <v>34</v>
       </c>
       <c r="Q273">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="R273">
         <v>31</v>
@@ -26880,7 +26932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:31">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2013</v>
       </c>
@@ -26975,7 +27027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:31">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2013</v>
       </c>
@@ -27070,7 +27122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:31">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2013</v>
       </c>
@@ -27120,7 +27172,7 @@
         <v>16</v>
       </c>
       <c r="Q276">
-        <v>286.6</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="R276">
         <v>38</v>
@@ -27165,7 +27217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:31">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2013</v>
       </c>
@@ -27260,7 +27312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:31">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2013</v>
       </c>
@@ -27355,7 +27407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:31">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2013</v>
       </c>
@@ -27450,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:31">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2013</v>
       </c>
@@ -27500,7 +27552,7 @@
         <v>27</v>
       </c>
       <c r="Q280">
-        <v>289.9</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="R280">
         <v>29</v>
@@ -27545,7 +27597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:31">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2013</v>
       </c>
@@ -27595,7 +27647,7 @@
         <v>43</v>
       </c>
       <c r="Q281">
-        <v>294.9</v>
+        <v>294.89999999999998</v>
       </c>
       <c r="R281">
         <v>13</v>
@@ -27640,7 +27692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:31">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2013</v>
       </c>
@@ -27690,7 +27742,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>280.1</v>
+        <v>280.10000000000002</v>
       </c>
       <c r="R282">
         <v>53</v>
@@ -27735,7 +27787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:31">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2013</v>
       </c>
@@ -27830,7 +27882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:31">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2013</v>
       </c>
@@ -27925,7 +27977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:31">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2013</v>
       </c>
@@ -28020,7 +28072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:31">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2013</v>
       </c>
@@ -28115,7 +28167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:31">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2013</v>
       </c>
@@ -28165,7 +28217,7 @@
         <v>20</v>
       </c>
       <c r="Q287">
-        <v>295.4</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="R287">
         <v>10</v>
@@ -28210,7 +28262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:31">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2013</v>
       </c>
@@ -28260,7 +28312,7 @@
         <v>55</v>
       </c>
       <c r="Q288">
-        <v>297.9</v>
+        <v>297.89999999999998</v>
       </c>
       <c r="R288">
         <v>7</v>
@@ -28305,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:31">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2013</v>
       </c>
@@ -28355,7 +28407,7 @@
         <v>9</v>
       </c>
       <c r="Q289">
-        <v>298.4</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="R289">
         <v>4</v>
@@ -28400,7 +28452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:31">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2013</v>
       </c>
@@ -28450,7 +28502,7 @@
         <v>43</v>
       </c>
       <c r="Q290">
-        <v>295.1</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="R290">
         <v>12</v>
@@ -28495,7 +28547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:31">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2013</v>
       </c>
@@ -28590,7 +28642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:31">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2013</v>
       </c>
@@ -28685,7 +28737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:31">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2013</v>
       </c>
@@ -28780,7 +28832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:31">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2013</v>
       </c>
@@ -28830,7 +28882,7 @@
         <v>27</v>
       </c>
       <c r="Q294">
-        <v>290.6</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="R294">
         <v>25</v>
@@ -28875,7 +28927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:31">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2013</v>
       </c>
@@ -28925,7 +28977,7 @@
         <v>49</v>
       </c>
       <c r="Q295">
-        <v>286.6</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="R295">
         <v>38</v>
@@ -28970,7 +29022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:31">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2013</v>
       </c>
@@ -29020,7 +29072,7 @@
         <v>2</v>
       </c>
       <c r="Q296">
-        <v>284.1</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="R296">
         <v>48</v>
@@ -29065,7 +29117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:31">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2013</v>
       </c>
@@ -29160,7 +29212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:31">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2013</v>
       </c>
@@ -29255,7 +29307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:31">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2013</v>
       </c>
@@ -29305,7 +29357,7 @@
         <v>55</v>
       </c>
       <c r="Q299">
-        <v>289.9</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="R299">
         <v>29</v>
@@ -29350,7 +29402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:31">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2013</v>
       </c>
@@ -29400,7 +29452,7 @@
         <v>9</v>
       </c>
       <c r="Q300">
-        <v>294.1</v>
+        <v>294.10000000000002</v>
       </c>
       <c r="R300">
         <v>15</v>
@@ -29445,7 +29497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:31">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2013</v>
       </c>
@@ -29495,7 +29547,7 @@
         <v>7</v>
       </c>
       <c r="Q301">
-        <v>286.4</v>
+        <v>286.39999999999998</v>
       </c>
       <c r="R301">
         <v>40</v>
@@ -29540,7 +29592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:31">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2013</v>
       </c>
@@ -29635,7 +29687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:31">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2013</v>
       </c>
@@ -29685,7 +29737,7 @@
         <v>38</v>
       </c>
       <c r="Q303">
-        <v>287.6</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="R303">
         <v>36</v>
@@ -29730,7 +29782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:31">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2013</v>
       </c>
@@ -29825,7 +29877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:31">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2013</v>
       </c>
@@ -29920,7 +29972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:31">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2013</v>
       </c>
@@ -29970,7 +30022,7 @@
         <v>27</v>
       </c>
       <c r="Q306">
-        <v>278.9</v>
+        <v>278.89999999999998</v>
       </c>
       <c r="R306">
         <v>56</v>
@@ -30015,7 +30067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:31">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2013</v>
       </c>
@@ -30110,7 +30162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:31">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2013</v>
       </c>
@@ -30160,7 +30212,7 @@
         <v>47</v>
       </c>
       <c r="Q308">
-        <v>292.9</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="R308">
         <v>20</v>
@@ -30205,7 +30257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:31">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2013</v>
       </c>
@@ -30255,7 +30307,7 @@
         <v>8</v>
       </c>
       <c r="Q309">
-        <v>293.6</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="R309">
         <v>19</v>
@@ -30300,7 +30352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:31">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2013</v>
       </c>
@@ -30395,7 +30447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:31">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2013</v>
       </c>
@@ -30445,7 +30497,7 @@
         <v>60</v>
       </c>
       <c r="Q311">
-        <v>287.9</v>
+        <v>287.89999999999998</v>
       </c>
       <c r="R311">
         <v>34</v>
@@ -30490,7 +30542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:31">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2013</v>
       </c>
@@ -30540,7 +30592,7 @@
         <v>55</v>
       </c>
       <c r="Q312">
-        <v>304.4</v>
+        <v>304.39999999999998</v>
       </c>
       <c r="R312">
         <v>1</v>
@@ -30585,7 +30637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:31">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2013</v>
       </c>
@@ -30680,7 +30732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:31">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2013</v>
       </c>
@@ -30775,7 +30827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:31">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2013</v>
       </c>
@@ -30825,7 +30877,7 @@
         <v>27</v>
       </c>
       <c r="Q315">
-        <v>285.9</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="R315">
         <v>42</v>
@@ -30870,7 +30922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:31">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2013</v>
       </c>
@@ -30965,7 +31017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:31">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2012</v>
       </c>
@@ -31015,7 +31067,7 @@
         <v>46</v>
       </c>
       <c r="Q317">
-        <v>290.4</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="R317">
         <v>4</v>
@@ -31060,7 +31112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:31">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2012</v>
       </c>
@@ -31155,7 +31207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:31">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2012</v>
       </c>
@@ -31250,7 +31302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:31">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2012</v>
       </c>
@@ -31300,7 +31352,7 @@
         <v>22</v>
       </c>
       <c r="Q320">
-        <v>287.4</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="R320">
         <v>8</v>
@@ -31345,7 +31397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:31">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2012</v>
       </c>
@@ -31395,7 +31447,7 @@
         <v>16</v>
       </c>
       <c r="Q321">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="R321">
         <v>31</v>
@@ -31440,7 +31492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:31">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2012</v>
       </c>
@@ -31490,7 +31542,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>280.6</v>
+        <v>280.60000000000002</v>
       </c>
       <c r="R322">
         <v>34</v>
@@ -31535,7 +31587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:31">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2012</v>
       </c>
@@ -31630,7 +31682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:31">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2012</v>
       </c>
@@ -31725,7 +31777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:31">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2012</v>
       </c>
@@ -31775,7 +31827,7 @@
         <v>9</v>
       </c>
       <c r="Q325">
-        <v>287.1</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="R325">
         <v>9</v>
@@ -31820,7 +31872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:31">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2012</v>
       </c>
@@ -31870,7 +31922,7 @@
         <v>40</v>
       </c>
       <c r="Q326">
-        <v>280.9</v>
+        <v>280.89999999999998</v>
       </c>
       <c r="R326">
         <v>33</v>
@@ -31915,7 +31967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:31">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2012</v>
       </c>
@@ -31965,7 +32017,7 @@
         <v>9</v>
       </c>
       <c r="Q327">
-        <v>272.1</v>
+        <v>272.10000000000002</v>
       </c>
       <c r="R327">
         <v>55</v>
@@ -32010,7 +32062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:31">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2012</v>
       </c>
@@ -32060,7 +32112,7 @@
         <v>22</v>
       </c>
       <c r="Q328">
-        <v>273.1</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="R328">
         <v>49</v>
@@ -32105,7 +32157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:31">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2012</v>
       </c>
@@ -32155,7 +32207,7 @@
         <v>40</v>
       </c>
       <c r="Q329">
-        <v>278.9</v>
+        <v>278.89999999999998</v>
       </c>
       <c r="R329">
         <v>40</v>
@@ -32200,7 +32252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:31">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2012</v>
       </c>
@@ -32295,7 +32347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:31">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2012</v>
       </c>
@@ -32345,7 +32397,7 @@
         <v>18</v>
       </c>
       <c r="Q331">
-        <v>268.1</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="R331">
         <v>59</v>
@@ -32390,7 +32442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:31">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2012</v>
       </c>
@@ -32485,7 +32537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:31">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2012</v>
       </c>
@@ -32535,7 +32587,7 @@
         <v>22</v>
       </c>
       <c r="Q333">
-        <v>284.9</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="R333">
         <v>16</v>
@@ -32580,7 +32632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:31">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2012</v>
       </c>
@@ -32675,7 +32727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:31">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2012</v>
       </c>
@@ -32770,7 +32822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:31">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2012</v>
       </c>
@@ -32865,7 +32917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:31">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2012</v>
       </c>
@@ -32915,7 +32967,7 @@
         <v>46</v>
       </c>
       <c r="Q337">
-        <v>279.4</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="R337">
         <v>38</v>
@@ -32960,7 +33012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:31">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2012</v>
       </c>
@@ -33010,7 +33062,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>272.4</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="R338">
         <v>53</v>
@@ -33055,7 +33107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:31">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2012</v>
       </c>
@@ -33150,7 +33202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:31">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2012</v>
       </c>
@@ -33200,7 +33252,7 @@
         <v>50</v>
       </c>
       <c r="Q340">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="R340">
         <v>5</v>
@@ -33245,7 +33297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:31">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2012</v>
       </c>
@@ -33295,7 +33347,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>278.6</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="R341">
         <v>41</v>
@@ -33340,7 +33392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:31">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2012</v>
       </c>
@@ -33435,7 +33487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:31">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2012</v>
       </c>
@@ -33530,7 +33582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:31">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2012</v>
       </c>
@@ -33580,7 +33632,7 @@
         <v>18</v>
       </c>
       <c r="Q344">
-        <v>278.4</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="R344">
         <v>42</v>
@@ -33625,7 +33677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:31">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2012</v>
       </c>
@@ -33720,7 +33772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:31">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2012</v>
       </c>
@@ -33815,7 +33867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:31">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2012</v>
       </c>
@@ -33910,7 +33962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:31">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2012</v>
       </c>
@@ -33960,7 +34012,7 @@
         <v>52</v>
       </c>
       <c r="Q348">
-        <v>281.9</v>
+        <v>281.89999999999998</v>
       </c>
       <c r="R348">
         <v>27</v>
@@ -34005,7 +34057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:31">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2012</v>
       </c>
@@ -34055,7 +34107,7 @@
         <v>9</v>
       </c>
       <c r="Q349">
-        <v>272.4</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="R349">
         <v>53</v>
@@ -34100,7 +34152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:31">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2012</v>
       </c>
@@ -34150,7 +34202,7 @@
         <v>5</v>
       </c>
       <c r="Q350">
-        <v>271.9</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="R350">
         <v>56</v>
@@ -34195,7 +34247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:31">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2012</v>
       </c>
@@ -34245,7 +34297,7 @@
         <v>26</v>
       </c>
       <c r="Q351">
-        <v>279.4</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="R351">
         <v>38</v>
@@ -34290,7 +34342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:31">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2012</v>
       </c>
@@ -34385,7 +34437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:31">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2012</v>
       </c>
@@ -34435,7 +34487,7 @@
         <v>16</v>
       </c>
       <c r="Q353">
-        <v>279.9</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="R353">
         <v>36</v>
@@ -34480,7 +34532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:31">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2012</v>
       </c>
@@ -34575,7 +34627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:31">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2012</v>
       </c>
@@ -34625,7 +34677,7 @@
         <v>46</v>
       </c>
       <c r="Q355">
-        <v>281.1</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="R355">
         <v>32</v>
@@ -34670,7 +34722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:31">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2012</v>
       </c>
@@ -34720,7 +34772,7 @@
         <v>61</v>
       </c>
       <c r="Q356">
-        <v>281.6</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="R356">
         <v>29</v>
@@ -34765,7 +34817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:31">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2012</v>
       </c>
@@ -34860,7 +34912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:31">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2012</v>
       </c>
@@ -34910,7 +34962,7 @@
         <v>62</v>
       </c>
       <c r="Q358">
-        <v>283.1</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="R358">
         <v>20</v>
@@ -34955,7 +35007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:31">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2012</v>
       </c>
@@ -35050,7 +35102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:31">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2012</v>
       </c>
@@ -35145,7 +35197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:31">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2012</v>
       </c>
@@ -35195,7 +35247,7 @@
         <v>7</v>
       </c>
       <c r="Q361">
-        <v>282.6</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="R361">
         <v>22</v>
@@ -35207,7 +35259,7 @@
         <v>4</v>
       </c>
       <c r="U361">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="V361">
         <v>131</v>
@@ -35240,7 +35292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:31">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2011</v>
       </c>
@@ -35290,7 +35342,7 @@
         <v>31</v>
       </c>
       <c r="Q362">
-        <v>278.4</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="R362">
         <v>44</v>
@@ -35335,7 +35387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:31">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2011</v>
       </c>
@@ -35385,7 +35437,7 @@
         <v>36</v>
       </c>
       <c r="Q363">
-        <v>287.1</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="R363">
         <v>19</v>
@@ -35430,7 +35482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:31">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2011</v>
       </c>
@@ -35525,7 +35577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:31">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2011</v>
       </c>
@@ -35620,7 +35672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:31">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2011</v>
       </c>
@@ -35715,7 +35767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:31">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2011</v>
       </c>
@@ -35810,7 +35862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:31">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2011</v>
       </c>
@@ -35905,7 +35957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:31">
+    <row r="369" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2011</v>
       </c>
@@ -36000,7 +36052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:31">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2011</v>
       </c>
@@ -36050,7 +36102,7 @@
         <v>34</v>
       </c>
       <c r="Q370">
-        <v>279.4</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="R370">
         <v>41</v>
@@ -36095,7 +36147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:31">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2011</v>
       </c>
@@ -36145,7 +36197,7 @@
         <v>10</v>
       </c>
       <c r="Q371">
-        <v>287.1</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="R371">
         <v>19</v>
@@ -36190,7 +36242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:31">
+    <row r="372" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2011</v>
       </c>
@@ -36240,7 +36292,7 @@
         <v>40</v>
       </c>
       <c r="Q372">
-        <v>283.4</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="R372">
         <v>26</v>
@@ -36285,7 +36337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:31">
+    <row r="373" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2011</v>
       </c>
@@ -36335,7 +36387,7 @@
         <v>15</v>
       </c>
       <c r="Q373">
-        <v>288.9</v>
+        <v>288.89999999999998</v>
       </c>
       <c r="R373">
         <v>14</v>
@@ -36380,7 +36432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:31">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2011</v>
       </c>
@@ -36430,7 +36482,7 @@
         <v>5</v>
       </c>
       <c r="Q374">
-        <v>280.4</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="R374">
         <v>38</v>
@@ -36475,7 +36527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:31">
+    <row r="375" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2011</v>
       </c>
@@ -36525,7 +36577,7 @@
         <v>20</v>
       </c>
       <c r="Q375">
-        <v>282.4</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="R375">
         <v>32</v>
@@ -36570,7 +36622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:31">
+    <row r="376" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2011</v>
       </c>
@@ -36620,7 +36672,7 @@
         <v>44</v>
       </c>
       <c r="Q376">
-        <v>287.4</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="R376">
         <v>17</v>
@@ -36665,7 +36717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:31">
+    <row r="377" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2011</v>
       </c>
@@ -36715,7 +36767,7 @@
         <v>20</v>
       </c>
       <c r="Q377">
-        <v>289.1</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="R377">
         <v>12</v>
@@ -36760,7 +36812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:31">
+    <row r="378" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2011</v>
       </c>
@@ -36810,7 +36862,7 @@
         <v>5</v>
       </c>
       <c r="Q378">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="R378">
         <v>37</v>
@@ -36855,7 +36907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:31">
+    <row r="379" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2011</v>
       </c>
@@ -36905,7 +36957,7 @@
         <v>10</v>
       </c>
       <c r="Q379">
-        <v>291.1</v>
+        <v>291.10000000000002</v>
       </c>
       <c r="R379">
         <v>11</v>
@@ -36950,7 +37002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:31">
+    <row r="380" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2011</v>
       </c>
@@ -37000,7 +37052,7 @@
         <v>15</v>
       </c>
       <c r="Q380">
-        <v>303.1</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="R380">
         <v>2</v>
@@ -37045,7 +37097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:31">
+    <row r="381" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2011</v>
       </c>
@@ -37095,7 +37147,7 @@
         <v>31</v>
       </c>
       <c r="Q381">
-        <v>278.9</v>
+        <v>278.89999999999998</v>
       </c>
       <c r="R381">
         <v>43</v>
@@ -37140,7 +37192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:31">
+    <row r="382" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2011</v>
       </c>
@@ -37190,7 +37242,7 @@
         <v>10</v>
       </c>
       <c r="Q382">
-        <v>280.1</v>
+        <v>280.10000000000002</v>
       </c>
       <c r="R382">
         <v>40</v>
@@ -37235,7 +37287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:31">
+    <row r="383" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2011</v>
       </c>
@@ -37285,7 +37337,7 @@
         <v>46</v>
       </c>
       <c r="Q383">
-        <v>282.6</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="R383">
         <v>30</v>
@@ -37330,7 +37382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:31">
+    <row r="384" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2011</v>
       </c>
@@ -37380,7 +37432,7 @@
         <v>26</v>
       </c>
       <c r="Q384">
-        <v>293.4</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="R384">
         <v>5</v>
@@ -37425,7 +37477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:31">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2011</v>
       </c>
@@ -37520,7 +37572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:31">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2011</v>
       </c>
@@ -37570,7 +37622,7 @@
         <v>10</v>
       </c>
       <c r="Q386">
-        <v>271.9</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="R386">
         <v>47</v>
@@ -37615,7 +37667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:31">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2011</v>
       </c>
@@ -37665,7 +37717,7 @@
         <v>26</v>
       </c>
       <c r="Q387">
-        <v>293.9</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="R387">
         <v>4</v>
@@ -37710,7 +37762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:31">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2011</v>
       </c>
@@ -37805,7 +37857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:31">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2011</v>
       </c>
@@ -37900,7 +37952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:31">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2011</v>
       </c>
@@ -37950,7 +38002,7 @@
         <v>15</v>
       </c>
       <c r="Q390">
-        <v>279.1</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="R390">
         <v>42</v>
@@ -37995,7 +38047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:31">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2011</v>
       </c>
@@ -38090,7 +38142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:31">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2011</v>
       </c>
@@ -38185,7 +38237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:31">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2011</v>
       </c>
@@ -38235,7 +38287,7 @@
         <v>4</v>
       </c>
       <c r="Q393">
-        <v>283.4</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="R393">
         <v>26</v>
@@ -38280,7 +38332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:31">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2011</v>
       </c>
@@ -38330,7 +38382,7 @@
         <v>46</v>
       </c>
       <c r="Q394">
-        <v>303.4</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="R394">
         <v>1</v>
@@ -38375,7 +38427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:31">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2011</v>
       </c>
@@ -38425,7 +38477,7 @@
         <v>36</v>
       </c>
       <c r="Q395">
-        <v>286.6</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="R395">
         <v>22</v>
@@ -38470,7 +38522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:31">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2011</v>
       </c>
@@ -38520,7 +38572,7 @@
         <v>3</v>
       </c>
       <c r="Q396">
-        <v>270.4</v>
+        <v>270.39999999999998</v>
       </c>
       <c r="R396">
         <v>48</v>
@@ -38565,7 +38617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:31">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2011</v>
       </c>
@@ -38660,7 +38712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:31">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2011</v>
       </c>
@@ -38755,7 +38807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:31">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2011</v>
       </c>
@@ -38805,7 +38857,7 @@
         <v>46</v>
       </c>
       <c r="Q399">
-        <v>283.4</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="R399">
         <v>26</v>
@@ -38850,7 +38902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:31">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2011</v>
       </c>
@@ -38945,7 +38997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:31">
+    <row r="401" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2011</v>
       </c>
@@ -39040,7 +39092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:31">
+    <row r="402" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2011</v>
       </c>
@@ -39135,7 +39187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:31">
+    <row r="403" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2011</v>
       </c>
@@ -39185,7 +39237,7 @@
         <v>15</v>
       </c>
       <c r="Q403">
-        <v>277.4</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="R403">
         <v>45</v>
@@ -39230,7 +39282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:31">
+    <row r="404" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2011</v>
       </c>
@@ -39325,7 +39377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:31">
+    <row r="405" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2011</v>
       </c>
@@ -39420,7 +39472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:31">
+    <row r="406" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2011</v>
       </c>
@@ -39470,7 +39522,7 @@
         <v>7</v>
       </c>
       <c r="Q406">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="R406">
         <v>29</v>
@@ -39515,7 +39567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:31">
+    <row r="407" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2010</v>
       </c>
@@ -39565,7 +39617,7 @@
         <v>44</v>
       </c>
       <c r="Q407">
-        <v>297.1</v>
+        <v>297.10000000000002</v>
       </c>
       <c r="R407">
         <v>2</v>
@@ -39610,7 +39662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:31">
+    <row r="408" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2010</v>
       </c>
@@ -39705,7 +39757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:31">
+    <row r="409" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2010</v>
       </c>
@@ -39800,7 +39852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:31">
+    <row r="410" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2010</v>
       </c>
@@ -39895,7 +39947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:31">
+    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2010</v>
       </c>
@@ -39945,7 +39997,7 @@
         <v>24</v>
       </c>
       <c r="Q411">
-        <v>275.6</v>
+        <v>275.60000000000002</v>
       </c>
       <c r="R411">
         <v>43</v>
@@ -39990,7 +40042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:31">
+    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2010</v>
       </c>
@@ -40085,7 +40137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:31">
+    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2010</v>
       </c>
@@ -40135,7 +40187,7 @@
         <v>21</v>
       </c>
       <c r="Q413">
-        <v>293.4</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="R413">
         <v>4</v>
@@ -40180,7 +40232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:31">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2010</v>
       </c>
@@ -40230,7 +40282,7 @@
         <v>24</v>
       </c>
       <c r="Q414">
-        <v>285.1</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="R414">
         <v>15</v>
@@ -40275,7 +40327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:31">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2010</v>
       </c>
@@ -40325,7 +40377,7 @@
         <v>17</v>
       </c>
       <c r="Q415">
-        <v>289.6</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="R415">
         <v>8</v>
@@ -40370,7 +40422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:31">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2010</v>
       </c>
@@ -40420,7 +40472,7 @@
         <v>37</v>
       </c>
       <c r="Q416">
-        <v>283.1</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="R416">
         <v>19</v>
@@ -40465,7 +40517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:31">
+    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2010</v>
       </c>
@@ -40560,7 +40612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:31">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2010</v>
       </c>
@@ -40610,7 +40662,7 @@
         <v>5</v>
       </c>
       <c r="Q418">
-        <v>279.1</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="R418">
         <v>32</v>
@@ -40655,7 +40707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:31">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2010</v>
       </c>
@@ -40750,7 +40802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:31">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2010</v>
       </c>
@@ -40800,7 +40852,7 @@
         <v>8</v>
       </c>
       <c r="Q420">
-        <v>279.1</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="R420">
         <v>32</v>
@@ -40845,7 +40897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:31">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2010</v>
       </c>
@@ -40940,7 +40992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:31">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2010</v>
       </c>
@@ -41035,7 +41087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:31">
+    <row r="423" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2010</v>
       </c>
@@ -41085,7 +41137,7 @@
         <v>34</v>
       </c>
       <c r="Q423">
-        <v>282.1</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="R423">
         <v>21</v>
@@ -41130,7 +41182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:31">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2010</v>
       </c>
@@ -41180,7 +41232,7 @@
         <v>21</v>
       </c>
       <c r="Q424">
-        <v>277.1</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="R424">
         <v>41</v>
@@ -41225,7 +41277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:31">
+    <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2010</v>
       </c>
@@ -41275,7 +41327,7 @@
         <v>5</v>
       </c>
       <c r="Q425">
-        <v>277.1</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="R425">
         <v>41</v>
@@ -41320,7 +41372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:31">
+    <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2010</v>
       </c>
@@ -41415,7 +41467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:31">
+    <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2010</v>
       </c>
@@ -41465,7 +41517,7 @@
         <v>14</v>
       </c>
       <c r="Q427">
-        <v>295.9</v>
+        <v>295.89999999999998</v>
       </c>
       <c r="R427">
         <v>3</v>
@@ -41510,7 +41562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:31">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2010</v>
       </c>
@@ -41605,7 +41657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:31">
+    <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2010</v>
       </c>
@@ -41700,7 +41752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:31">
+    <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2010</v>
       </c>
@@ -41750,7 +41802,7 @@
         <v>17</v>
       </c>
       <c r="Q430">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="R430">
         <v>24</v>
@@ -41795,7 +41847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:31">
+    <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2010</v>
       </c>
@@ -41845,7 +41897,7 @@
         <v>2</v>
       </c>
       <c r="Q431">
-        <v>277.6</v>
+        <v>277.60000000000002</v>
       </c>
       <c r="R431">
         <v>36</v>
@@ -41890,7 +41942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:31">
+    <row r="432" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2010</v>
       </c>
@@ -41940,7 +41992,7 @@
         <v>31</v>
       </c>
       <c r="Q432">
-        <v>277.9</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="R432">
         <v>35</v>
@@ -41985,7 +42037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:31">
+    <row r="433" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2010</v>
       </c>
@@ -42035,7 +42087,7 @@
         <v>48</v>
       </c>
       <c r="Q433">
-        <v>287.1</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="R433">
         <v>12</v>
@@ -42080,7 +42132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:31">
+    <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2010</v>
       </c>
@@ -42175,7 +42227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:31">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2010</v>
       </c>
@@ -42225,7 +42277,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>279.9</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="R435">
         <v>31</v>
@@ -42270,7 +42322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:31">
+    <row r="436" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2010</v>
       </c>
@@ -42365,7 +42417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:31">
+    <row r="437" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2010</v>
       </c>
@@ -42460,7 +42512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:31">
+    <row r="438" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2010</v>
       </c>
@@ -42510,7 +42562,7 @@
         <v>27</v>
       </c>
       <c r="Q438">
-        <v>282.1</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="R438">
         <v>21</v>
@@ -42555,7 +42607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:31">
+    <row r="439" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2010</v>
       </c>
@@ -42605,7 +42657,7 @@
         <v>14</v>
       </c>
       <c r="Q439">
-        <v>277.6</v>
+        <v>277.60000000000002</v>
       </c>
       <c r="R439">
         <v>36</v>
@@ -42650,7 +42702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:31">
+    <row r="440" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2010</v>
       </c>
@@ -42700,7 +42752,7 @@
         <v>14</v>
       </c>
       <c r="Q440">
-        <v>281.4</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="R440">
         <v>24</v>
@@ -42745,7 +42797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:31">
+    <row r="441" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2010</v>
       </c>
@@ -42840,7 +42892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:31">
+    <row r="442" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2010</v>
       </c>
@@ -42890,7 +42942,7 @@
         <v>27</v>
       </c>
       <c r="Q442">
-        <v>293.1</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="R442">
         <v>5</v>
@@ -42935,7 +42987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:31">
+    <row r="443" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2010</v>
       </c>
@@ -43030,7 +43082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:31">
+    <row r="444" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2010</v>
       </c>
@@ -43125,7 +43177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:31">
+    <row r="445" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2010</v>
       </c>
@@ -43175,7 +43227,7 @@
         <v>31</v>
       </c>
       <c r="Q445">
-        <v>280.1</v>
+        <v>280.10000000000002</v>
       </c>
       <c r="R445">
         <v>29</v>
@@ -43220,7 +43272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:31">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2010</v>
       </c>
@@ -43315,7 +43367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:31">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2010</v>
       </c>
@@ -43410,7 +43462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:31">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2010</v>
       </c>
@@ -43505,7 +43557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:31">
+    <row r="449" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2010</v>
       </c>
@@ -43600,7 +43652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:31">
+    <row r="450" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2010</v>
       </c>
@@ -43695,7 +43747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:31">
+    <row r="451" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2010</v>
       </c>
